--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang9/XKBH_LapDat_110923.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2023/Thang9/XKBH_LapDat_110923.xlsx
@@ -420,10 +420,10 @@
     <t>Tên Khách hàng:  Dự phòng lắp đặt</t>
   </si>
   <si>
+    <t>Thay thế cho thiết bị dùng MCU STM</t>
+  </si>
+  <si>
     <t>Hà Nội, Ngày 11 Tháng 09 Năm 2023</t>
-  </si>
-  <si>
-    <t>Thay thế cho thiết bị dùng MCU STM</t>
   </si>
 </sst>
 </file>
@@ -3271,7 +3271,7 @@
   <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3341,7 +3341,7 @@
         <v>126</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6" s="137"/>
       <c r="G6" s="137"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E10" s="74"/>
       <c r="F10" s="86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="86"/>
     </row>
